--- a/Феникс в наличии.xlsx
+++ b/Феникс в наличии.xlsx
@@ -1,27 +1,58 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\111-75-75\Desktop\Цены\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11595"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11595" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
-    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
-    <sheet name="Лист3" sheetId="3" r:id="rId3"/>
+    <sheet name="1" sheetId="2" r:id="rId2"/>
+    <sheet name="2" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>S.Rogachevsky</author>
+  </authors>
+  <commentList>
+    <comment ref="B2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>S.Rogachevsky:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+тут только значения - нет формул</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="69">
   <si>
     <t>1200х2100х420</t>
   </si>
@@ -135,6 +166,99 @@
   </si>
   <si>
     <t>Наименование продукции</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - есть такое в другом прайсе</t>
+  </si>
+  <si>
+    <t>sku</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>image</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>price_currency</t>
+  </si>
+  <si>
+    <t>BYR</t>
+  </si>
+  <si>
+    <t>SKU</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>pod_category</t>
+  </si>
+  <si>
+    <t>gabarity</t>
+  </si>
+  <si>
+    <t>brand</t>
+  </si>
+  <si>
+    <t>material</t>
+  </si>
+  <si>
+    <t>priznak</t>
+  </si>
+  <si>
+    <t>ustanovka</t>
+  </si>
+  <si>
+    <t>dostavka</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>kype_razmesch</t>
+  </si>
+  <si>
+    <t>kype_kolichestvo</t>
+  </si>
+  <si>
+    <t>softmebel_mehanizm</t>
+  </si>
+  <si>
+    <t>matracy_razmer</t>
+  </si>
+  <si>
+    <t>matracy_sostav</t>
+  </si>
+  <si>
+    <t>opisanie</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>pohozhye</t>
+  </si>
+  <si>
+    <t>color</t>
+  </si>
+  <si>
+    <t>Феникс-мебель</t>
+  </si>
+  <si>
+    <t>ЛДСП</t>
+  </si>
+  <si>
+    <t>7-30 дней</t>
+  </si>
+  <si>
+    <t>Спальни</t>
+  </si>
+  <si>
+    <t>Гостиные</t>
   </si>
 </sst>
 </file>
@@ -144,7 +268,7 @@
   <numFmts count="1">
     <numFmt numFmtId="6" formatCode="#,##0&quot;р.&quot;;[Red]\-#,##0&quot;р.&quot;"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -162,13 +286,53 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -198,20 +362,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -226,6 +384,28 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -286,7 +466,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -321,7 +501,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -530,308 +710,322 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:D21"/>
+  <dimension ref="A2:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:D20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C19" sqref="C19:C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="71.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="71.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="E2" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="5">
+      <c r="D3" s="4">
         <v>2213568</v>
       </c>
-      <c r="D3" s="12">
-        <f>IF(C3&lt;&gt;0,IF(C3&gt;10000000,ROUND(C3*1.1,-2),ROUND(C3*1.25,-2)),"")</f>
+      <c r="E3" s="10">
+        <f>IF(D3&lt;&gt;0,IF(D3&gt;10000000,ROUND(D3*1.1,-2),ROUND(D3*1.25,-2)),"")</f>
         <v>2767000</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+    <row r="4" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="5">
+      <c r="D4" s="4">
         <v>2529274</v>
       </c>
-      <c r="D4" s="12">
-        <f t="shared" ref="D4:D20" si="0">IF(C4&lt;&gt;0,IF(C4&gt;10000000,ROUND(C4*1.1,-2),ROUND(C4*1.25,-2)),"")</f>
+      <c r="E4" s="10">
+        <f t="shared" ref="E4:E20" si="0">IF(D4&lt;&gt;0,IF(D4&gt;10000000,ROUND(D4*1.1,-2),ROUND(D4*1.25,-2)),"")</f>
         <v>3161600</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="5">
+      <c r="D5" s="4">
         <v>2786918</v>
       </c>
-      <c r="D5" s="12">
+      <c r="E5" s="10">
         <f t="shared" si="0"/>
         <v>3483600</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+    <row r="6" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="C6" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="9">
+      <c r="D6" s="7">
         <v>1308182</v>
       </c>
-      <c r="D6" s="12">
+      <c r="E6" s="10">
         <f t="shared" si="0"/>
         <v>1635200</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+    <row r="7" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="5">
+      <c r="D7" s="4">
         <v>1075939</v>
       </c>
-      <c r="D7" s="12">
+      <c r="E7" s="10">
         <f t="shared" si="0"/>
         <v>1344900</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
+    <row r="8" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="C8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="5">
+      <c r="D8" s="4">
         <v>1019693</v>
       </c>
-      <c r="D8" s="12">
+      <c r="E8" s="10">
         <f t="shared" si="0"/>
         <v>1274600</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+    <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="C9" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="5">
+      <c r="D9" s="4">
         <v>970704</v>
       </c>
-      <c r="D9" s="12">
+      <c r="E9" s="10">
         <f t="shared" si="0"/>
         <v>1213400</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+    <row r="10" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="C10" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="5">
+      <c r="D10" s="4">
         <v>1019693</v>
       </c>
-      <c r="D10" s="12">
+      <c r="E10" s="10">
         <f t="shared" si="0"/>
         <v>1274600</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B11" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="C11" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="5">
+      <c r="D11" s="4">
         <v>1075939</v>
       </c>
-      <c r="D11" s="12">
+      <c r="E11" s="10">
         <f t="shared" si="0"/>
         <v>1344900</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B12" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="C12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="5">
+      <c r="D12" s="4">
         <v>1378944</v>
       </c>
-      <c r="D12" s="12">
+      <c r="E12" s="10">
         <f t="shared" si="0"/>
         <v>1723700</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B13" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="C13" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="5">
+      <c r="D13" s="4">
         <v>2286144</v>
       </c>
-      <c r="D13" s="12">
+      <c r="E13" s="10">
         <f t="shared" si="0"/>
         <v>2857700</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
+    <row r="14" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>1960</v>
+      </c>
+      <c r="B14" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="C14" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="10">
+      <c r="D14" s="8">
         <v>8875138</v>
       </c>
-      <c r="D14" s="12">
+      <c r="E14" s="10">
         <f t="shared" si="0"/>
         <v>11093900</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+    <row r="15" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="C15" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="5">
+      <c r="D15" s="4">
         <v>791078</v>
       </c>
-      <c r="D15" s="12">
+      <c r="E15" s="10">
         <f t="shared" si="0"/>
         <v>988800</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
+    <row r="16" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="C16" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="5">
+      <c r="D16" s="4">
         <v>4263840</v>
       </c>
-      <c r="D16" s="12">
+      <c r="E16" s="10">
         <f t="shared" si="0"/>
         <v>5329800</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
+      <c r="G16" s="16"/>
+      <c r="H16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="C17" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="5">
+      <c r="D17" s="4">
         <v>3694118</v>
       </c>
-      <c r="D17" s="12">
+      <c r="E17" s="10">
         <f t="shared" si="0"/>
         <v>4617600</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
+    <row r="18" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="C18" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="5">
+      <c r="D18" s="4">
         <v>1788998</v>
       </c>
-      <c r="D18" s="12">
+      <c r="E18" s="10">
         <f t="shared" si="0"/>
         <v>2236200</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="11" t="s">
+    <row r="19" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>1961</v>
+      </c>
+      <c r="B19" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="C19" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="5">
+      <c r="D19" s="4">
         <v>2358720</v>
       </c>
-      <c r="D19" s="12">
+      <c r="E19" s="10">
         <f t="shared" si="0"/>
         <v>2948400</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="11" t="s">
+    <row r="20" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>1962</v>
+      </c>
+      <c r="B20" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="11" t="s">
+      <c r="C20" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="5">
+      <c r="D20" s="4">
         <v>366509</v>
       </c>
-      <c r="D20" s="12">
+      <c r="E20" s="10">
         <f t="shared" si="0"/>
         <v>458100</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -840,25 +1034,375 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="77.7109375" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="19">
+        <v>1960</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="19" t="str">
+        <f>"public://"&amp;A2&amp;".jpg"</f>
+        <v>public://1960.jpg</v>
+      </c>
+      <c r="D2" s="20">
+        <v>11093900</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="19">
+        <v>1961</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="19" t="str">
+        <f t="shared" ref="C3:C4" si="0">"public://"&amp;A3&amp;".jpg"</f>
+        <v>public://1961.jpg</v>
+      </c>
+      <c r="D3" s="19">
+        <v>2948400</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="19">
+        <v>1962</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>public://1962.jpg</v>
+      </c>
+      <c r="D4" s="19">
+        <v>458100</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="19"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="19"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="19"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="19"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="19"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="19"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="19"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="19"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="19"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="19"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="19"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:U4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.7109375" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K1" t="s">
+        <v>53</v>
+      </c>
+      <c r="L1" t="s">
+        <v>54</v>
+      </c>
+      <c r="M1" t="s">
+        <v>55</v>
+      </c>
+      <c r="N1" t="s">
+        <v>56</v>
+      </c>
+      <c r="O1" t="s">
+        <v>57</v>
+      </c>
+      <c r="P1" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>59</v>
+      </c>
+      <c r="R1" t="s">
+        <v>60</v>
+      </c>
+      <c r="S1" t="s">
+        <v>61</v>
+      </c>
+      <c r="T1" t="s">
+        <v>62</v>
+      </c>
+      <c r="U1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1960</v>
+      </c>
+      <c r="B2">
+        <v>1960</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H2" t="s">
+        <v>65</v>
+      </c>
+      <c r="K2" t="s">
+        <v>66</v>
+      </c>
+      <c r="S2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1961</v>
+      </c>
+      <c r="B3">
+        <v>1961</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" t="s">
+        <v>64</v>
+      </c>
+      <c r="H3" t="s">
+        <v>65</v>
+      </c>
+      <c r="K3" t="s">
+        <v>66</v>
+      </c>
+      <c r="S3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1962</v>
+      </c>
+      <c r="B4">
+        <v>1962</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" t="s">
+        <v>64</v>
+      </c>
+      <c r="H4" t="s">
+        <v>65</v>
+      </c>
+      <c r="K4" t="s">
+        <v>66</v>
+      </c>
+      <c r="S4">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Феникс в наличии.xlsx
+++ b/Феникс в наличии.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11595" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11595" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="69">
   <si>
     <t>1200х2100х420</t>
   </si>
@@ -1035,10 +1035,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1087,42 +1087,20 @@
       <c r="G2" s="19"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="19">
-        <v>1961</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="19" t="str">
-        <f t="shared" ref="C3:C4" si="0">"public://"&amp;A3&amp;".jpg"</f>
-        <v>public://1961.jpg</v>
-      </c>
-      <c r="D3" s="19">
-        <v>2948400</v>
-      </c>
-      <c r="E3" s="19" t="s">
-        <v>44</v>
-      </c>
+      <c r="A3" s="19"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
       <c r="F3" s="19"/>
       <c r="G3" s="19"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="19">
-        <v>1962</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v>public://1962.jpg</v>
-      </c>
-      <c r="D4" s="19">
-        <v>458100</v>
-      </c>
-      <c r="E4" s="19" t="s">
-        <v>44</v>
-      </c>
+      <c r="A4" s="19"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
       <c r="F4" s="19"/>
       <c r="G4" s="19"/>
     </row>
@@ -1207,24 +1185,6 @@
       <c r="F13" s="19"/>
       <c r="G13" s="19"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="19"/>
-      <c r="B14" s="19"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="19"/>
-      <c r="B15" s="19"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -1233,10 +1193,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U4"/>
+  <dimension ref="A1:U3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1373,35 +1333,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>1962</v>
-      </c>
-      <c r="B4">
-        <v>1962</v>
-      </c>
-      <c r="C4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" t="s">
-        <v>67</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" t="s">
-        <v>64</v>
-      </c>
-      <c r="H4" t="s">
-        <v>65</v>
-      </c>
-      <c r="K4" t="s">
-        <v>66</v>
-      </c>
-      <c r="S4">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Феникс в наличии.xlsx
+++ b/Феникс в наличии.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11595" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11595" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="68">
   <si>
     <t>1200х2100х420</t>
   </si>
@@ -252,13 +252,10 @@
     <t>ЛДСП</t>
   </si>
   <si>
-    <t>7-30 дней</t>
-  </si>
-  <si>
-    <t>Спальни</t>
-  </si>
-  <si>
     <t>Гостиные</t>
+  </si>
+  <si>
+    <t>2-15 дней</t>
   </si>
 </sst>
 </file>
@@ -1037,8 +1034,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1193,10 +1190,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U3"/>
+  <dimension ref="A1:U2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1286,7 +1283,7 @@
         <v>33</v>
       </c>
       <c r="D2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>11</v>
@@ -1298,38 +1295,9 @@
         <v>65</v>
       </c>
       <c r="K2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="S2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1961</v>
-      </c>
-      <c r="B3">
-        <v>1961</v>
-      </c>
-      <c r="C3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" t="s">
-        <v>67</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" t="s">
-        <v>64</v>
-      </c>
-      <c r="H3" t="s">
-        <v>65</v>
-      </c>
-      <c r="K3" t="s">
-        <v>66</v>
-      </c>
-      <c r="S3">
         <v>1</v>
       </c>
     </row>
